--- a/medicine/Enfance/Pauvre_Blaise/Pauvre_Blaise.xlsx
+++ b/medicine/Enfance/Pauvre_Blaise/Pauvre_Blaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pauvre Blaise est un roman de la Comtesse de Ségur publié en 1862.
@@ -512,7 +524,9 @@
           <t>Dédicace</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est dédicacé :
 « À mon petit-fils Pierre de Ségur
@@ -545,7 +559,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le roman est composé de 22 chapitres.
 Les propriétaires du domaine l'ont vendu récemment et on attend l'arrivée des nouveaux propriétaire. Très vite les époux Anfry et leur fils Blaise, 11 ans, font la connaissance des nouveaux arrivants : le comte et la comtesse de Trénilly, avec leurs enfants Hélène et Jules. Ce dernier, du même âge que Blaise, se montre vite sournois et menteur.
